--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Local/database/Склад/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38D75736-4F7A-E141-8E92-6EE0AF5F18A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F4EAD-0742-2A44-9602-ED4CE018800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -587,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,9 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
       <c r="C5" s="3">
         <v>44672</v>
       </c>
@@ -691,7 +693,7 @@
     </row>
     <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>44672</v>
@@ -717,7 +719,9 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
       <c r="C7" s="3">
         <v>44672</v>
       </c>
@@ -756,14 +760,14 @@
         <v>9</v>
       </c>
       <c r="G8" s="2">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="H8" s="2">
         <v>40</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.2">
@@ -813,11 +817,11 @@
         <v>200</v>
       </c>
       <c r="H10" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.2">
@@ -888,13 +892,15 @@
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>90</v>
+      </c>
       <c r="H13" s="2">
         <v>87</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>-87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" x14ac:dyDescent="0.2">
@@ -913,7 +919,9 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
@@ -1356,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338510A0-2765-3841-A806-E7638C875825}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Local/database/Склад/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F4EAD-0742-2A44-9602-ED4CE018800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832D06E6-FBCD-4A4C-96D0-FCBDA6119D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -133,13 +133,19 @@
   </si>
   <si>
     <t>Отримано</t>
+  </si>
+  <si>
+    <t>Умань</t>
+  </si>
+  <si>
+    <t>Солопа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,13 +174,25 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -217,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,15 +267,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +276,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,10 +615,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,19 +631,27 @@
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,14 +670,20 @@
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="J3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -658,15 +702,22 @@
       <c r="G4" s="2">
         <v>132</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="20">
         <v>28</v>
       </c>
       <c r="I4" s="2">
         <f>G4-H4</f>
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="J4" s="21">
+        <v>12</v>
+      </c>
+      <c r="K4" s="18">
+        <f>I4-J4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -685,13 +736,20 @@
       <c r="G5" s="2">
         <v>158</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="2">
         <f>G5-H5</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" ref="K5:K20" si="0">I5-J5</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -710,15 +768,22 @@
       <c r="G6" s="2">
         <v>152</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="20">
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I20" si="0">G6-H6</f>
+        <f t="shared" ref="I6:I20" si="1">G6-H6</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="J6" s="21">
+        <v>12</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -737,13 +802,20 @@
       <c r="G7" s="2">
         <v>32</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="2">
-        <f t="shared" ref="I7" si="1">G7-H7</f>
+        <f t="shared" ref="I7" si="2">G7-H7</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -762,15 +834,22 @@
       <c r="G8" s="2">
         <v>132</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="20">
         <v>40</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="J8" s="21">
+        <v>24</v>
+      </c>
+      <c r="K8" s="18">
         <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -789,15 +868,20 @@
       <c r="G9" s="2">
         <v>40</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="20">
         <v>40</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -816,15 +900,20 @@
       <c r="G10" s="2">
         <v>200</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="20">
         <v>64</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="18">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -843,13 +932,18 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -868,15 +962,20 @@
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="20">
         <v>10</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -895,15 +994,20 @@
       <c r="G13" s="2">
         <v>90</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="20">
         <v>87</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -922,13 +1026,18 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -945,15 +1054,20 @@
         <v>9</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2">
+      <c r="H15" s="20">
         <v>39</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>-39</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -970,15 +1084,20 @@
         <v>9</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="H16" s="20">
         <v>207</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>-207</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="18">
         <f t="shared" si="0"/>
         <v>-207</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -995,15 +1114,20 @@
         <v>9</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="H17" s="20">
         <v>39</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>-39</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="18">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1022,15 +1146,20 @@
       <c r="G18" s="2">
         <v>54</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="20">
         <v>39</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1047,13 +1176,18 @@
         <v>14</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1070,13 +1204,18 @@
         <v>9</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1088,7 +1227,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1100,7 +1239,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -1112,7 +1251,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>18</v>
@@ -1125,7 +1264,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <v>19</v>
@@ -1138,7 +1277,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <v>20</v>
@@ -1151,7 +1290,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <v>21</v>
@@ -1164,7 +1303,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <v>22</v>
@@ -1177,7 +1316,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <v>23</v>
@@ -1191,164 +1330,164 @@
       <c r="I29" s="7"/>
     </row>
     <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1375,12 +1514,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">

--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Local/database/Склад/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Local\database\Склад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832D06E6-FBCD-4A4C-96D0-FCBDA6119D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="465" windowWidth="26745" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -277,6 +276,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,18 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,47 +610,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="0.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.375" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H2" s="19" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,20 +669,20 @@
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -702,22 +701,22 @@
       <c r="G4" s="2">
         <v>132</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="17">
         <v>28</v>
       </c>
       <c r="I4" s="2">
         <f>G4-H4</f>
         <v>104</v>
       </c>
-      <c r="J4" s="21">
-        <v>12</v>
-      </c>
-      <c r="K4" s="18">
+      <c r="J4" s="18">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15">
         <f>I4-J4</f>
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -736,20 +735,20 @@
       <c r="G5" s="2">
         <v>158</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="2">
         <f>G5-H5</f>
         <v>158</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <v>0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="15">
         <f t="shared" ref="K5:K20" si="0">I5-J5</f>
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -768,22 +767,22 @@
       <c r="G6" s="2">
         <v>152</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>12</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ref="I6:I20" si="1">G6-H6</f>
         <v>140</v>
       </c>
-      <c r="J6" s="21">
-        <v>12</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="J6" s="18">
+        <v>12</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -802,20 +801,20 @@
       <c r="G7" s="2">
         <v>32</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="2">
         <f t="shared" ref="I7" si="2">G7-H7</f>
         <v>32</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <v>0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -834,22 +833,22 @@
       <c r="G8" s="2">
         <v>132</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <v>40</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <v>24</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -868,20 +867,20 @@
       <c r="G9" s="2">
         <v>40</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>40</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="18">
+      <c r="J9" s="18"/>
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -900,20 +899,20 @@
       <c r="G10" s="2">
         <v>200</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>64</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="18">
+      <c r="J10" s="18"/>
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -932,18 +931,18 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18">
+      <c r="J11" s="18"/>
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -962,20 +961,20 @@
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>10</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18">
+      <c r="J12" s="18"/>
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -994,20 +993,20 @@
       <c r="G13" s="2">
         <v>90</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>87</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18">
+      <c r="J13" s="18"/>
+      <c r="K13" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1026,18 +1025,18 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="18">
+      <c r="J14" s="18"/>
+      <c r="K14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1054,20 +1053,20 @@
         <v>9</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>39</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>-39</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="18">
+      <c r="J15" s="18"/>
+      <c r="K15" s="15">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1084,20 +1083,20 @@
         <v>9</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>207</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>-207</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="18">
+      <c r="J16" s="18"/>
+      <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>-207</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1114,20 +1113,20 @@
         <v>9</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="20">
+      <c r="H17" s="17">
         <v>39</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>-39</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="18">
+      <c r="J17" s="18"/>
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1146,20 +1145,20 @@
       <c r="G18" s="2">
         <v>54</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="17">
         <v>39</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="18">
+      <c r="J18" s="18"/>
+      <c r="K18" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1176,18 +1175,18 @@
         <v>14</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="20"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="18">
+      <c r="J19" s="18"/>
+      <c r="K19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1204,18 +1203,18 @@
         <v>9</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="20"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="18">
+      <c r="J20" s="18"/>
+      <c r="K20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1227,7 +1226,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1239,7 +1238,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -1251,7 +1250,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>18</v>
@@ -1264,7 +1263,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <v>19</v>
@@ -1277,7 +1276,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <v>20</v>
@@ -1290,7 +1289,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <v>21</v>
@@ -1303,7 +1302,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <v>22</v>
@@ -1316,7 +1315,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <v>23</v>
@@ -1329,17 +1328,17 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1349,7 +1348,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -1359,7 +1358,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -1369,7 +1368,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -1379,7 +1378,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -1389,7 +1388,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -1399,7 +1398,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -1409,7 +1408,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -1419,7 +1418,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
@@ -1429,7 +1428,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
@@ -1439,7 +1438,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
@@ -1449,7 +1448,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
@@ -1459,7 +1458,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
@@ -1469,7 +1468,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="14"/>
@@ -1479,7 +1478,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -1500,28 +1499,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338510A0-2765-3841-A806-E7638C875825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1569,7 +1571,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1591,7 +1593,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1613,7 +1615,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1635,7 +1637,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1657,7 +1659,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1679,7 +1681,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1701,7 +1703,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1723,7 +1725,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1745,7 +1747,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1767,7 +1769,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1789,7 +1791,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1809,7 +1811,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1836,5 +1838,6 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Local\database\Склад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Local/database/Склад/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDFDD8B-82DA-714C-B31E-46D759E1C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="465" windowWidth="26745" windowHeight="13920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -610,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -620,17 +621,17 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="49.375" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
@@ -642,7 +643,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H2" s="16" t="s">
         <v>34</v>
       </c>
@@ -650,7 +651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -716,7 +717,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -748,7 +749,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -782,7 +783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -814,7 +815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -848,7 +849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -880,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -912,7 +913,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -942,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -974,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>-207</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1226,7 +1227,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1238,7 +1239,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -1250,7 +1251,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>18</v>
@@ -1263,7 +1264,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <v>19</v>
@@ -1276,7 +1277,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <v>20</v>
@@ -1289,7 +1290,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <v>21</v>
@@ -1302,7 +1303,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <v>22</v>
@@ -1315,7 +1316,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <v>23</v>
@@ -1328,7 +1329,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -1338,7 +1339,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1348,7 +1349,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -1358,7 +1359,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -1368,7 +1369,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -1378,7 +1379,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -1388,7 +1389,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -1398,7 +1399,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -1408,7 +1409,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -1418,7 +1419,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
@@ -1428,7 +1429,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
@@ -1438,7 +1439,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
@@ -1448,7 +1449,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
@@ -1458,7 +1459,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
@@ -1468,7 +1469,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="14"/>
@@ -1478,7 +1479,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -1499,23 +1500,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="A1:H17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
@@ -1523,7 +1524,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1571,7 +1572,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1593,7 +1594,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1615,7 +1616,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1637,7 +1638,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1659,7 +1660,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1681,7 +1682,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1703,7 +1704,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1725,7 +1726,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1747,7 +1748,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1769,7 +1770,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1791,12 +1792,12 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>44672</v>
+        <v>44699</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1807,11 +1808,13 @@
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>500</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>

--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Local/database/Склад/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Local\database\Склад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDFDD8B-82DA-714C-B31E-46D759E1C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="25605" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Солопа Олександр" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -611,27 +610,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="0.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.375" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
@@ -643,15 +642,18 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H2" s="16" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,8 +684,14 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -716,8 +724,15 @@
         <f>I4-J4</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f>K4+L4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -748,8 +763,13 @@
         <f t="shared" ref="K5:K20" si="0">I5-J5</f>
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L5" s="17"/>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M20" si="1">K5+L5</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -772,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I20" si="1">G6-H6</f>
+        <f t="shared" ref="I6:I20" si="2">G6-H6</f>
         <v>140</v>
       </c>
       <c r="J6" s="18">
@@ -782,8 +802,15 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L6" s="17">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -804,7 +831,7 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="2">
-        <f t="shared" ref="I7" si="2">G7-H7</f>
+        <f t="shared" ref="I7" si="3">G7-H7</f>
         <v>32</v>
       </c>
       <c r="J7" s="18">
@@ -814,8 +841,13 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L7" s="17"/>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -838,7 +870,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="J8" s="18">
@@ -848,8 +880,15 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L8" s="17">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -872,7 +911,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="18"/>
@@ -880,8 +919,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L9" s="17">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -904,7 +950,7 @@
         <v>64</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="J10" s="18"/>
@@ -912,8 +958,15 @@
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L10" s="17">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -934,7 +987,7 @@
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="18"/>
@@ -942,8 +995,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L11" s="17"/>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -966,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="18"/>
@@ -974,8 +1032,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L12" s="17">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -998,7 +1063,7 @@
         <v>87</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J13" s="18"/>
@@ -1006,8 +1071,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L13" s="17">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1028,7 +1100,7 @@
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="18"/>
@@ -1036,8 +1108,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L14" s="17"/>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1058,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-39</v>
       </c>
       <c r="J15" s="18"/>
@@ -1066,8 +1143,15 @@
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L15" s="17">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1088,7 +1172,7 @@
         <v>207</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-207</v>
       </c>
       <c r="J16" s="18"/>
@@ -1096,8 +1180,14 @@
         <f t="shared" si="0"/>
         <v>-207</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L16" s="17">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1118,7 +1208,7 @@
         <v>39</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-39</v>
       </c>
       <c r="J17" s="18"/>
@@ -1126,8 +1216,15 @@
         <f t="shared" si="0"/>
         <v>-39</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L17" s="17">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1150,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J18" s="18"/>
@@ -1158,8 +1255,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L18" s="17">
+        <v>39</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1178,7 +1282,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="17"/>
       <c r="I19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="18"/>
@@ -1186,8 +1290,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L19" s="17"/>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1206,7 +1315,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="17"/>
       <c r="I20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="18"/>
@@ -1214,8 +1323,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L20" s="17"/>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1227,7 +1341,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1239,7 +1353,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -1251,7 +1365,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>18</v>
@@ -1264,7 +1378,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <v>19</v>
@@ -1277,7 +1391,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <v>20</v>
@@ -1290,7 +1404,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <v>21</v>
@@ -1303,7 +1417,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <v>22</v>
@@ -1316,7 +1430,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <v>23</v>
@@ -1329,7 +1443,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -1339,7 +1453,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1349,7 +1463,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -1359,7 +1473,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="14"/>
@@ -1369,7 +1483,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -1379,7 +1493,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
@@ -1389,7 +1503,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="14"/>
@@ -1399,7 +1513,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="14"/>
@@ -1409,7 +1523,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="14"/>
@@ -1419,7 +1533,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
@@ -1429,7 +1543,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
@@ -1439,7 +1553,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
@@ -1449,7 +1563,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
@@ -1459,7 +1573,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
@@ -1469,7 +1583,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="14"/>
@@ -1479,7 +1593,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -1500,23 +1614,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1638,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1569,10 +1683,15 @@
       <c r="F5" s="2">
         <v>28</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G5" s="2">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1591,10 +1710,15 @@
       <c r="F6" s="2">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G6" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H6" s="2">
+        <f>F6-G6</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1613,10 +1737,15 @@
       <c r="F7" s="2">
         <v>40</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2">
+        <f>F7-G7</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1635,10 +1764,15 @@
       <c r="F8" s="2">
         <v>40</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H17" si="0">F8-G8</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1657,10 +1791,15 @@
       <c r="F9" s="2">
         <v>40</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G9" s="2">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1679,10 +1818,15 @@
       <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1701,10 +1845,15 @@
       <c r="F11" s="2">
         <v>87</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1723,10 +1872,15 @@
       <c r="F12" s="2">
         <v>39</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1745,10 +1899,15 @@
       <c r="F13" s="2">
         <v>207</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <v>157</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1767,10 +1926,15 @@
       <c r="F14" s="2">
         <v>39</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1789,10 +1953,15 @@
       <c r="F15" s="2">
         <v>39</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="G15" s="2">
+        <v>39</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1812,9 +1981,12 @@
         <v>500</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1834,7 +2006,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="25605" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="25605" windowHeight="13920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Солопа Олександр" sheetId="2" r:id="rId2"/>
+    <sheet name="Продано 31.05" sheetId="3" r:id="rId2"/>
+    <sheet name="Солопа Олександр" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -138,13 +139,40 @@
   </si>
   <si>
     <t>Солопа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товари </t>
+  </si>
+  <si>
+    <t>К-ть</t>
+  </si>
+  <si>
+    <t>Од</t>
+  </si>
+  <si>
+    <t>Ціна</t>
+  </si>
+  <si>
+    <t>Сума</t>
+  </si>
+  <si>
+    <t>Прижим крайній h-30мм</t>
+  </si>
+  <si>
+    <t>Прижим міжпанельний h-30мм</t>
+  </si>
+  <si>
+    <t>Болт М8 під шестигранник</t>
+  </si>
+  <si>
+    <t>Всього</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +207,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,11 +274,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +349,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +685,8 @@
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="F55" sqref="C44:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1475,120 +1544,126 @@
     </row>
     <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="12"/>
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="12"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="2"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="12"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="12"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="12"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="12"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="12"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="12"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="2"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="12"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="12"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="2"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -1614,6 +1689,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="F4" s="7">
+        <f>C4*E4</f>
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F7" si="0">C5*E5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25">
+        <f>SUM(F4:F7)</f>
+        <v>274.39999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Local\database\Склад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Local/database/Склад/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A225CF-8523-FF4E-9ED7-B8388CB3D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="25605" windowHeight="13920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Продано 31.05" sheetId="3" r:id="rId2"/>
-    <sheet name="Солопа Олександр" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
+    <sheet name="Продано 31.05" sheetId="3" r:id="rId3"/>
+    <sheet name="Солопа Олександр" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>№</t>
   </si>
@@ -166,13 +168,43 @@
   </si>
   <si>
     <t>Всього</t>
+  </si>
+  <si>
+    <t>Перелік профілю для виконання монтажних робіт с. Леськи</t>
+  </si>
+  <si>
+    <t>Найменування</t>
+  </si>
+  <si>
+    <t>К-ть, шт</t>
+  </si>
+  <si>
+    <t>Розмір</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профіль </t>
+  </si>
+  <si>
+    <t>36 м</t>
+  </si>
+  <si>
+    <t>1,3 м</t>
+  </si>
+  <si>
+    <t>2,5 м</t>
+  </si>
+  <si>
+    <t>4,7 м</t>
+  </si>
+  <si>
+    <t>2 м</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +255,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -238,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,11 +323,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,30 +396,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,39 +745,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="F55" sqref="C44:F55"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="0.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="49.375" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H2" s="16" t="s">
         <v>34</v>
       </c>
@@ -722,7 +788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -801,7 +867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -838,7 +904,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -879,7 +945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -916,7 +982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -957,7 +1023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -996,7 +1062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1035,7 +1101,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1070,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1109,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1148,7 +1214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1183,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1220,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1256,7 +1322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1293,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1324,15 +1390,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L18" s="17">
-        <v>39</v>
-      </c>
+      <c r="L18" s="17"/>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1365,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1398,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1410,7 +1474,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1422,7 +1486,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -1434,7 +1498,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>18</v>
@@ -1447,7 +1511,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <v>19</v>
@@ -1460,7 +1524,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <v>20</v>
@@ -1473,7 +1537,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <v>21</v>
@@ -1486,7 +1550,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <v>22</v>
@@ -1499,7 +1563,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <v>23</v>
@@ -1512,17 +1576,17 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+    <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1532,7 +1596,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -1542,7 +1606,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="3" t="s">
         <v>0</v>
@@ -1558,7 +1622,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -1568,7 +1632,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -1578,7 +1642,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -1588,7 +1652,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
@@ -1598,7 +1662,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
@@ -1608,7 +1672,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
@@ -1618,7 +1682,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
@@ -1628,7 +1692,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -1638,7 +1702,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -1648,7 +1712,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -1658,7 +1722,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -1668,7 +1732,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -1689,37 +1753,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5F01F-E20E-E546-8258-D7A9187E679B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="28">
+        <v>4</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="28">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="28">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="26"/>
-      <c r="F1" s="26">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23">
         <v>44712</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1739,8 +1924,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1760,8 +1945,8 @@
         <v>138.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1781,8 +1966,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1802,8 +1987,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1823,15 +2008,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
         <f>SUM(F4:F7)</f>
         <v>274.39999999999998</v>
       </c>
@@ -1845,8 +2030,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1856,21 +2041,21 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1923,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1950,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1977,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2004,7 +2189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2031,7 +2216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2058,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2085,7 +2270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2112,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2139,7 +2324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2166,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2193,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2218,7 +2403,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>

--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Local/database/Склад/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-6KR0DT6\Local\database\Склад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A225CF-8523-FF4E-9ED7-B8388CB3D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56638B62-7243-4EF6-A3A7-F3EEC674FA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
-    <sheet name="Продано 31.05" sheetId="3" r:id="rId3"/>
-    <sheet name="Солопа Олександр" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист1 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId3"/>
+    <sheet name="Продано 31.05" sheetId="3" r:id="rId4"/>
+    <sheet name="Солопа Олександр" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>№</t>
   </si>
@@ -342,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,18 +408,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,12 +416,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,7 +454,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -490,7 +492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -596,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,50 +747,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB5AFF0-DE89-48AB-996F-825CC2592A13}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="0.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.375" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,20 +807,8 @@
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -842,32 +824,14 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2">
-        <v>132</v>
-      </c>
-      <c r="H4" s="17">
-        <v>28</v>
-      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2">
-        <f>G4-H4</f>
-        <v>104</v>
-      </c>
-      <c r="J4" s="18">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15">
-        <f>I4-J4</f>
-        <v>92</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <f>K4+L4</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I4:I14" si="0">G4-H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -883,28 +847,14 @@
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
-        <v>158</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="17"/>
       <c r="I5" s="2">
-        <f>G5-H5</f>
-        <v>158</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" ref="K5:K20" si="0">I5-J5</f>
-        <v>158</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M20" si="1">K5+L5</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -920,32 +870,14 @@
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2">
-        <v>152</v>
-      </c>
-      <c r="H6" s="17">
-        <v>12</v>
-      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I20" si="2">G6-H6</f>
-        <v>140</v>
-      </c>
-      <c r="J6" s="18">
-        <v>12</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="L6" s="17">
-        <v>15</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -961,28 +893,14 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2">
-        <v>32</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="17"/>
       <c r="I7" s="2">
-        <f t="shared" ref="I7" si="3">G7-H7</f>
-        <v>32</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -999,31 +917,17 @@
         <v>9</v>
       </c>
       <c r="G8" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="H8" s="17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="J8" s="18">
-        <v>24</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="L8" s="17">
-        <v>15</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1039,30 +943,14 @@
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2">
-        <v>40</v>
-      </c>
-      <c r="H9" s="17">
-        <v>40</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="17">
-        <v>16</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1078,30 +966,14 @@
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2">
-        <v>200</v>
-      </c>
-      <c r="H10" s="17">
-        <v>64</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="15">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="L10" s="17">
-        <v>12</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1117,26 +989,14 @@
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="17"/>
       <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1152,30 +1012,14 @@
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
-      <c r="H12" s="17">
-        <v>10</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <v>6</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1191,30 +1035,14 @@
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2">
-        <v>90</v>
-      </c>
-      <c r="H13" s="17">
-        <v>87</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L13" s="17">
-        <v>50</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1230,26 +1058,14 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="17"/>
       <c r="I14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1265,28 +1081,16 @@
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="17">
-        <v>39</v>
-      </c>
+      <c r="G15" s="2">
+        <v>200</v>
+      </c>
+      <c r="H15" s="17"/>
       <c r="I15" s="2">
-        <f t="shared" si="2"/>
-        <v>-39</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="15">
-        <f t="shared" si="0"/>
-        <v>-39</v>
-      </c>
-      <c r="L15" s="17">
-        <v>39</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+        <f>G15-H15</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1302,27 +1106,16 @@
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="17">
-        <v>207</v>
-      </c>
+      <c r="G16" s="2">
+        <v>600</v>
+      </c>
+      <c r="H16" s="17"/>
       <c r="I16" s="2">
-        <f t="shared" si="2"/>
-        <v>-207</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="15">
-        <f t="shared" si="0"/>
-        <v>-207</v>
-      </c>
-      <c r="L16" s="17">
-        <v>50</v>
-      </c>
-      <c r="M16" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I16:I20" si="1">G16-H16</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1338,28 +1131,16 @@
       <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="17">
-        <v>39</v>
-      </c>
+      <c r="G17" s="2">
+        <v>200</v>
+      </c>
+      <c r="H17" s="17"/>
       <c r="I17" s="2">
-        <f t="shared" si="2"/>
-        <v>-39</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="15">
-        <f t="shared" si="0"/>
-        <v>-39</v>
-      </c>
-      <c r="L17" s="17">
-        <v>39</v>
-      </c>
-      <c r="M17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1375,28 +1156,14 @@
       <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2">
-        <v>54</v>
-      </c>
-      <c r="H18" s="17">
-        <v>39</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1412,24 +1179,16 @@
       <c r="F19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>200</v>
+      </c>
       <c r="H19" s="17"/>
       <c r="I19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1445,24 +1204,16 @@
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
       <c r="H20" s="17"/>
       <c r="I20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1474,7 +1225,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1486,7 +1237,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>17</v>
       </c>
@@ -1498,7 +1249,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <v>18</v>
@@ -1511,7 +1262,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <v>19</v>
@@ -1524,7 +1275,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <v>20</v>
@@ -1537,7 +1288,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <v>21</v>
@@ -1550,7 +1301,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <v>22</v>
@@ -1563,7 +1314,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <v>23</v>
@@ -1576,17 +1327,17 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1596,7 +1347,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -1606,7 +1357,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="3" t="s">
         <v>0</v>
@@ -1622,7 +1373,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -1632,7 +1383,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -1642,7 +1393,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
@@ -1652,7 +1403,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
@@ -1662,7 +1413,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
@@ -1672,7 +1423,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
@@ -1682,7 +1433,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
@@ -1692,7 +1443,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -1702,7 +1453,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -1712,7 +1463,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -1722,7 +1473,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -1732,7 +1483,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -1753,115 +1504,1123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M20" sqref="A1:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="49.375" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>132</v>
+      </c>
+      <c r="H4" s="17">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4-H4</f>
+        <v>104</v>
+      </c>
+      <c r="J4" s="18">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15">
+        <f>I4-J4</f>
+        <v>92</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f>K4+L4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>158</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="2">
+        <f>G5-H5</f>
+        <v>158</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:K20" si="0">I5-J5</f>
+        <v>158</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M20" si="1">K5+L5</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>152</v>
+      </c>
+      <c r="H6" s="17">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I20" si="2">G6-H6</f>
+        <v>140</v>
+      </c>
+      <c r="J6" s="18">
+        <v>12</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="L6" s="17">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7" si="3">G7-H7</f>
+        <v>32</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>132</v>
+      </c>
+      <c r="H8" s="17">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="J8" s="18">
+        <v>24</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L8" s="17">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>40</v>
+      </c>
+      <c r="H9" s="17">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="17">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="L10" s="17">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="17">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>90</v>
+      </c>
+      <c r="H13" s="17">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L13" s="17">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="17">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>-39</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="15">
+        <f t="shared" si="0"/>
+        <v>-39</v>
+      </c>
+      <c r="L15" s="17">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="17">
+        <v>207</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="2"/>
+        <v>-207</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="15">
+        <f t="shared" si="0"/>
+        <v>-207</v>
+      </c>
+      <c r="L16" s="17">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="17">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="2"/>
+        <v>-39</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="15">
+        <f t="shared" si="0"/>
+        <v>-39</v>
+      </c>
+      <c r="L17" s="17">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>54</v>
+      </c>
+      <c r="H18" s="17">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44672</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7">
+        <v>22</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7">
+        <v>23</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B41:E41"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5F01F-E20E-E546-8258-D7A9187E679B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>4</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <v>4</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>1</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1873,7 +2632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1881,30 +2640,30 @@
       <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" s="23"/>
       <c r="F1" s="23">
         <v>44712</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +2683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -1945,7 +2704,7 @@
         <v>138.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -1966,7 +2725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>3</v>
       </c>
@@ -1987,7 +2746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -2008,7 +2767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>43</v>
@@ -2030,7 +2789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2041,21 +2800,21 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2108,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2135,7 +2894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2162,7 +2921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2189,7 +2948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2216,7 +2975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2243,7 +3002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2270,7 +3029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2297,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2324,7 +3083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2351,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2378,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2403,7 +3162,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>

--- a/Перелік наявних матеріальних цінностей.xlsx
+++ b/Перелік наявних матеріальних цінностей.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-6KR0DT6\Local\database\Склад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56638B62-7243-4EF6-A3A7-F3EEC674FA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21971DC8-F859-4752-AF30-8181F29CD59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,9 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,19 +768,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H2" s="33"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -824,11 +824,13 @@
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>37</v>
+      </c>
       <c r="H4" s="17"/>
       <c r="I4" s="2">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -847,11 +849,13 @@
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>158</v>
+      </c>
       <c r="H5" s="17"/>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -870,11 +874,13 @@
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -893,11 +899,13 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>32</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -943,7 +951,9 @@
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
@@ -966,11 +976,13 @@
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>51</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -989,7 +1001,9 @@
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="17"/>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
@@ -1012,11 +1026,13 @@
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1035,7 +1051,9 @@
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
       <c r="H13" s="17"/>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
@@ -1058,7 +1076,9 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
@@ -1156,11 +1176,13 @@
       <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>40</v>
+      </c>
       <c r="H18" s="17"/>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1328,10 +1350,10 @@
       <c r="I29" s="7"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -1525,16 +1547,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H2" s="16" t="s">
@@ -2336,10 +2358,10 @@
       <c r="I29" s="7"/>
     </row>
     <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2527,20 +2549,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
@@ -2656,12 +2678,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2807,12 +2829,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
